--- a/purchases.xlsx
+++ b/purchases.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,62 +440,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>FirearmID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>CustomerID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>UserName</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FullName</t>
+          <t>SerialNum</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DateOfBirth</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Maker_Model</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Calibre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>DateOfPurchase</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>OwnershipJustification</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>StorageDetails</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>NIF</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Staff</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HasLicense</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Deactivated</t>
+          <t>Bought</t>
         </is>
       </c>
     </row>
@@ -503,49 +498,46 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Staff                         </t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Conta Staff</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>36892</v>
+          <t xml:space="preserve">G116556                             </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol: Semi-Auto                   </t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Suporte@lojadearmas.pt</t>
+          <t xml:space="preserve">Glock 17                                                              </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$2b$12$OaqsNTfhrOJVBNWtVu1vU.jwACSmvB27aZNUpNHPO2NzJQ5.2RkSG</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Avenida dos Descobrimentos 333 Vila Nova de Gaia 4400-103</t>
-        </is>
+          <t xml:space="preserve">9mm                                 </t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>41255</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+351936776007</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+          <t xml:space="preserve">For Sale                                                              </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black plastic case                                                                                  </t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>284728632</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -553,49 +545,187 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ed                            </t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Edward Clarckson</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>33286</v>
+          <t xml:space="preserve">G126456                             </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol: Semi-Auto                   </t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>edwardclarckson@gmail.com</t>
+          <t xml:space="preserve">Glock 17                                                              </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$2b$12$bzYM9SEG/0JKgsTseWLfJ.b7u7XDeEnYbhxKJ/CV.US25AGtpM5yW</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Estrada Nacional Nº 1 , Avenida Principal Nº 4200 Santa Maria Da Feira 4535-013 Lourosa</t>
-        </is>
+          <t xml:space="preserve">9mm                                 </t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>41802</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>+10013416121660</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>237911175</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
+          <t xml:space="preserve">For Sale                                                              </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black plastic case                                                                                  </t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>284728632</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G176456                             </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol: Semi-Auto                   </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glock 17                                                              </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9mm                                 </t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>42777</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Sale                                                              </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black plastic case                                                                                  </t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>284728632</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G175326                             </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol: Semi-Auto                   </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glock 18                                                              </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9mm                                 </t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>41255</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Sale                                                              </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black plastic case                                                                                  </t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>284728632</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G112326                             </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol: Semi-Auto                   </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glock 18                                                              </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9mm                                 </t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>40858</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Sale                                                              </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black plastic case                                                                                  </t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>284728632</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
     </row>
